--- a/processes/data-visualisation/lemonade_data_visualization.xlsx
+++ b/processes/data-visualisation/lemonade_data_visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-visualisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21901153-5A16-FC46-B4E7-3C9E7E95F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF6299-4963-C74A-8A06-A96A4B2E6F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -18,38 +18,57 @@
     <sheet name="Lemonade Data Exploration" sheetId="9" r:id="rId3"/>
     <sheet name="Lemonade Data Exploration 2" sheetId="10" r:id="rId4"/>
     <sheet name="Lemonade Data Visualization" sheetId="12" r:id="rId5"/>
+    <sheet name="Lemonade Data Visualization 2" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Lemonade Data Visualization'!$G$2:$G$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Lemonade Data Visualization'!$I$2:$I$32</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Lemonade Data Visualization 2'!$G$2:$G$32</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Lemonade Data Visualization 2'!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Lemonade Data Visualization 2'!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Lemonade Data Visualization 2'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Lemonade Data Visualization 2'!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Lemonade Data Visualization'!$A$2:$A$32</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Lemonade Data Visualization'!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Lemonade Data Visualization'!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Lemonade Data Visualization'!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Lemonade Data Visualization'!$E$2:$E$32</definedName>
     <definedName name="Slicer_Day">#N/A</definedName>
     <definedName name="Slicer_Day1">#N/A</definedName>
     <definedName name="Slicer_Day11">#N/A</definedName>
+    <definedName name="Slicer_Day111">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,9 +77,10 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -77,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -654,7 +674,66 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1531,6 +1610,497 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scatter Plot - Sales vs Leaflets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FA7-D54D-A7C2-2EFD2DA8630C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1629635680"/>
+        <c:axId val="1629637328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1629635680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629637328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1629637328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629635680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3770,7 +4340,2770 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Line Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> - Revenue over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$J$2:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51B8-5743-B5C3-20AFCB4B8426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51B8-5743-B5C3-20AFCB4B8426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1627485680"/>
+        <c:axId val="1627487328"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1627485680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627487328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1627487328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$RM-4409]* #,##0.00_-;\-[$RM-4409]* #,##0.00_-;_-[$RM-4409]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627485680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Column</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Chart - Flavours over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lemon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E9-294E-B436-AC115C4AE677}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74E9-294E-B436-AC115C4AE677}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1601575360"/>
+        <c:axId val="1601577008"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1601575360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601577008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1601577008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601575360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Stacked Column</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Chart - Flavours over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lemon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0059-8947-B5AB-4F218D36EC90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lemonade Data Visualization 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0059-8947-B5AB-4F218D36EC90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="1601575360"/>
+        <c:axId val="1601577008"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1601575360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601577008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1601577008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601575360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Pie Chart - Average Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> based on Flavours</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lemon Flavour</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F79F-ED46-A92D-E11CB8CF94AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F79F-ED46-A92D-E11CB8CF94AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lemonade Data Visualization 2'!$D$33:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>116.58064516129032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.354838709677423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F79F-ED46-A92D-E11CB8CF94AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram of Leaflets</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histogram of Leaflets</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{AED442F4-7BF8-264E-850C-0EA9BA2FF45E}">
+          <cx:dataPt idx="2"/>
+          <cx:dataPt idx="3"/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Whisker Plot - Flavours</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Whisker Plot - Flavours</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8A0AC782-B11C-EB49-964A-BAA110DA7CCB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>Lemon</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9384795A-4451-AF45-A6E0-6943420881E9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Orange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3970,6 +7303,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4486,8 +7979,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4514,8 +8007,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4616,7 +8109,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4648,10 +8141,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4685,6 +8178,531 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -4755,12 +8773,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4792,8 +8804,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4848,7 +8860,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4876,7 +8888,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -4886,12 +8909,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4907,7 +8927,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4923,7 +8943,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4937,7 +8957,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4970,7 +8990,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -4979,17 +8999,526 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5492,8 +10021,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5550,7 +10079,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5601,13 +10130,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5618,19 +10140,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5668,7 +10183,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5711,23 +10226,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5832,8 +10346,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5965,20 +10479,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6011,8 +10524,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6039,8 +10552,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6069,7 +10582,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6120,6 +10633,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6130,18 +10650,25 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6176,7 +10703,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6497,6 +11024,49 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6508,6 +11078,2509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6958,6 +14031,435 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14194</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2795</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71662602-6127-614B-A576-EF2E9F0B908E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day 3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8235054" y="193050"/>
+              <a:ext cx="2016108" cy="2486304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>663604</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF527DAD-1F21-9047-8B6D-57402E79ABB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13731</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22883</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>183063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8018BBB2-07D8-D940-B8F9-F28AD4E48431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>194504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>20594</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187409</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA2DA83-1627-ED45-924D-8FFDE81F93F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2290</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>650904</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>183063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA18B25D-0481-6440-A9E1-CE836A6B6499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F163792-E8C3-CA48-BA60-FE6A4660F286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>651809</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>670112</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>192740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CF493E-6977-C44D-ABA3-F6F4D1B7C834}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20314397" y="12241678"/>
+              <a:ext cx="8758891" cy="5820709"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>662688</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>186352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>154767</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Chart 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5182FB-F2A7-D248-B430-7557E10081E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10890968" y="17966352"/>
+              <a:ext cx="8705269" cy="5703899"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
   <extLst>
@@ -6988,6 +14490,16 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day111" xr10:uid="{05B9AF73-038B-204A-B86F-227AF3797376}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Day" xr10:uid="{412465AE-E0B9-AA45-853D-0872BBDAF00B}" cache="Slicer_Day" caption="Day" rowHeight="230716"/>
@@ -7006,12 +14518,18 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day 3" xr10:uid="{AA51E416-A5F0-0F43-B848-62620BF23DF3}" cache="Slicer_Day111" caption="Day" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="32">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -7020,10 +14538,10 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="31">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="30">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7035,10 +14553,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04675377-B1F2-0F4B-ADEE-23965864F86E}" name="Table24" displayName="Table24" ref="A1:J33" totalsRowCount="1">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FFDA4435-0BB4-474B-B783-888F8B4A1521}" name="Date" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{FFDA4435-0BB4-474B-B783-888F8B4A1521}" name="Date" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>COUNT(Table24[Date])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{92CBF57E-2AB2-1D4D-899F-CA20D1CBA9CD}" name="Day" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="10" xr3:uid="{92CBF57E-2AB2-1D4D-899F-CA20D1CBA9CD}" name="Day" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DB267462-1084-394B-8B01-2CDAD7B37653}" name="Location"/>
@@ -7053,10 +14571,10 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{16D553C2-93BD-D645-A0FE-69F77ABBF952}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{F08F5317-9E6D-BA42-AA2C-B02D0F84BE29}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{3422B43D-6794-2548-BD7D-0DE0D784512E}" name="Sales" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="8" xr3:uid="{3422B43D-6794-2548-BD7D-0DE0D784512E}" name="Sales" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C7725E0A-2BEB-2A48-B28F-B47BCFAD84EA}" name="Revenue" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" totalsRowCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{C7725E0A-2BEB-2A48-B28F-B47BCFAD84EA}" name="Revenue" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" totalsRowCellStyle="Currency">
       <calculatedColumnFormula>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7068,10 +14586,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88D06D3D-3383-5B40-8A8B-76320C7E32BC}" name="Table242" displayName="Table242" ref="A1:J33" totalsRowCount="1">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B7A13450-8F87-D44B-B113-8668C9C366EB}" name="Date" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{B7A13450-8F87-D44B-B113-8668C9C366EB}" name="Date" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="13">
       <totalsRowFormula>COUNT(Table242[Date])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A4C94074-5BC6-7F4A-B491-34FCB3AC21B6}" name="Day" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{A4C94074-5BC6-7F4A-B491-34FCB3AC21B6}" name="Day" dataDxfId="16" totalsRowDxfId="12">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table242[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7A05B61D-C3C1-984F-8353-8134F09E2AFD}" name="Location"/>
@@ -7086,11 +14604,44 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{9DD0B223-1450-FB41-9675-BC14471F793B}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{54F3D77A-1D79-0A4F-BA6E-59C953024BDA}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{ECEC5B0E-E012-A14E-9CA0-7CD7833E6262}" name="Sales" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{ECEC5B0E-E012-A14E-9CA0-7CD7833E6262}" name="Sales" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="11">
       <calculatedColumnFormula>Table242[[#This Row],[Lemon]]+Table242[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33B0995C-A163-9E47-9BB7-E28C0D0979DD}" name="Revenue" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" totalsRowCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{33B0995C-A163-9E47-9BB7-E28C0D0979DD}" name="Revenue" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="10" totalsRowCellStyle="Currency">
       <calculatedColumnFormula>Table242[[#This Row],[Sales]]*Table242[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{895730B5-87F4-8A4B-99FA-81C4E5E99F78}" name="Table2425" displayName="Table2425" ref="A1:J33" totalsRowCount="1">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CB3DEBE1-FF5A-834C-BB38-ADB412979DD5}" name="Date" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+      <totalsRowFormula>COUNT(Table2425[Date])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{90A73327-2615-1247-AAB6-F5E6BFE5FFF0}" name="Day" dataDxfId="4" totalsRowDxfId="5">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{CBC36B52-21CD-6040-A5EE-1A493A12C5D6}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{6511E9A9-8C48-564B-A9CA-5BE189DC9C51}" name="Lemon" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table2425[Lemon])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B24EF057-87E0-1442-BE71-BC1CAF2823E9}" name="Orange" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Table2425[Orange])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9ED431ED-7641-844A-ACB1-388B0B271A34}" name="Temperature" totalsRowFunction="custom">
+      <totalsRowFormula>MAX(Table2425[Temperature])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E1EF5F00-7B0D-D64F-8195-A8F7AD951154}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{DF0BB835-E662-AB44-A908-9CF45A5F5E22}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{BF439CD7-368A-7245-8E66-A3EF0FC6EFB4}" name="Sales" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+      <calculatedColumnFormula>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{211291FE-274D-6F4D-ACAB-1DAB2452A836}" name="Revenue" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" totalsRowCellStyle="Currency">
+      <calculatedColumnFormula>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11273,8 +18824,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="top10" dxfId="19" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="18" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11364,7 +18915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57240FC5-2AB0-8C4C-B601-CDC003AE1B62}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F54" workbookViewId="0">
+    <sheetView topLeftCell="K45" workbookViewId="0">
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
@@ -12547,8 +20098,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12632,4 +20183,1278 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA77C95-E81F-694F-AFD2-AA7507D6DC49}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AE100" sqref="AE100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table2425[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table2425[[#This Row],[Lemon]]+Table2425[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32" s="3">
+        <f>Table2425[[#This Row],[Sales]]*Table2425[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <f>COUNT(Table2425[Date])</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="D33">
+        <f>AVERAGE(Table2425[Lemon])</f>
+        <v>116.58064516129032</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(Table2425[Orange])</f>
+        <v>80.354838709677423</v>
+      </c>
+      <c r="F33">
+        <f>MAX(Table2425[Temperature])</f>
+        <v>84</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUBTOTAL(109,Table2425[Sales])</f>
+        <v>6105</v>
+      </c>
+      <c r="J33" s="5">
+        <f>SUBTOTAL(109,Table2425[Revenue])</f>
+        <v>2138</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A655690F-0188-E047-A8CD-D681982FDCC1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="top10" dxfId="9" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A655690F-0188-E047-A8CD-D681982FDCC1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{563EB1C4-8977-ED47-9B9C-C9AF5C61BD2E}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G2:G32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{AC320B99-CED1-F44A-AD39-A08430E8228E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Lemonade Data Visualization 2'!I2:I32</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{86C695BC-1D66-4441-8BEE-AB50B0DB777A}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Lemonade Data Visualization 2'!H2:H32</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>